--- a/result/interactions_download/EXCEL/B_ALL_only_precog_mut.xlsx
+++ b/result/interactions_download/EXCEL/B_ALL_only_precog_mut.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
   <si>
     <t xml:space="preserve">gene_list</t>
   </si>
@@ -48,15 +48,15 @@
     <t xml:space="preserve">SMEK1</t>
   </si>
   <si>
+    <t xml:space="preserve">CLIC1</t>
+  </si>
+  <si>
     <t xml:space="preserve">ADCK3</t>
   </si>
   <si>
     <t xml:space="preserve">ARL6IP5</t>
   </si>
   <si>
-    <t xml:space="preserve">CLIC1</t>
-  </si>
-  <si>
     <t xml:space="preserve">PDK1</t>
   </si>
   <si>
@@ -81,15 +81,15 @@
     <t xml:space="preserve">TRMT61B</t>
   </si>
   <si>
+    <t xml:space="preserve">MDK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CPNE1</t>
+  </si>
+  <si>
     <t xml:space="preserve">TRIM39</t>
   </si>
   <si>
-    <t xml:space="preserve">MDK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CPNE1</t>
-  </si>
-  <si>
     <t xml:space="preserve">CTGF</t>
   </si>
   <si>
@@ -99,10 +99,22 @@
     <t xml:space="preserve">CA6</t>
   </si>
   <si>
+    <t xml:space="preserve">PECAM1</t>
+  </si>
+  <si>
     <t xml:space="preserve">ISCA1</t>
   </si>
   <si>
-    <t xml:space="preserve">PECAM1</t>
+    <t xml:space="preserve">MT3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TMEM11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TICAM1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LRRC29</t>
   </si>
   <si>
     <t xml:space="preserve">CCR4</t>
@@ -114,16 +126,13 @@
     <t xml:space="preserve">CCR6</t>
   </si>
   <si>
-    <t xml:space="preserve">TMEM11</t>
-  </si>
-  <si>
     <t xml:space="preserve">MAPKAPK3</t>
   </si>
   <si>
-    <t xml:space="preserve">MT3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TICAM1</t>
+    <t xml:space="preserve">PRR5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSNL1</t>
   </si>
   <si>
     <t xml:space="preserve">MIER3</t>
@@ -132,48 +141,42 @@
     <t xml:space="preserve">F3</t>
   </si>
   <si>
-    <t xml:space="preserve">LRRC29</t>
-  </si>
-  <si>
     <t xml:space="preserve">LRRC58</t>
   </si>
   <si>
     <t xml:space="preserve">FGF10</t>
   </si>
   <si>
-    <t xml:space="preserve">PRR5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSNL1</t>
+    <t xml:space="preserve">GPR110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDC42EP3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZNF628</t>
   </si>
   <si>
     <t xml:space="preserve">MST1</t>
   </si>
   <si>
+    <t xml:space="preserve">GAST</t>
+  </si>
+  <si>
     <t xml:space="preserve">ORMDL2</t>
   </si>
   <si>
-    <t xml:space="preserve">GPR110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GAST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CDC42EP3</t>
-  </si>
-  <si>
     <t xml:space="preserve">CCL17</t>
   </si>
   <si>
     <t xml:space="preserve">BTBD17</t>
   </si>
   <si>
-    <t xml:space="preserve">ZNF628</t>
-  </si>
-  <si>
     <t xml:space="preserve">BAALC</t>
   </si>
   <si>
+    <t xml:space="preserve">IFITM2</t>
+  </si>
+  <si>
     <t xml:space="preserve">STARD5</t>
   </si>
   <si>
@@ -186,9 +189,6 @@
     <t xml:space="preserve">TMEM194B</t>
   </si>
   <si>
-    <t xml:space="preserve">IFITM2</t>
-  </si>
-  <si>
     <t xml:space="preserve">EVI2B</t>
   </si>
   <si>
@@ -303,6 +303,9 @@
     <t xml:space="preserve">NRAS</t>
   </si>
   <si>
+    <t xml:space="preserve">RB1</t>
+  </si>
+  <si>
     <t xml:space="preserve">PRKCZ</t>
   </si>
   <si>
@@ -315,6 +318,12 @@
     <t xml:space="preserve">NUP155</t>
   </si>
   <si>
+    <t xml:space="preserve">SEC63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALK</t>
+  </si>
+  <si>
     <t xml:space="preserve">MAP4K4</t>
   </si>
   <si>
@@ -366,6 +375,9 @@
     <t xml:space="preserve">EYA4</t>
   </si>
   <si>
+    <t xml:space="preserve">LGALS1</t>
+  </si>
+  <si>
     <t xml:space="preserve">NF2</t>
   </si>
   <si>
@@ -378,6 +390,9 @@
     <t xml:space="preserve">DNMT3B</t>
   </si>
   <si>
+    <t xml:space="preserve">ENO1</t>
+  </si>
+  <si>
     <t xml:space="preserve">ITGA4</t>
   </si>
   <si>
@@ -391,6 +406,9 @@
   </si>
   <si>
     <t xml:space="preserve">DNMT1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSMD11</t>
   </si>
   <si>
     <t xml:space="preserve">CHERP</t>
@@ -768,13 +786,13 @@
         <v>3.057</v>
       </c>
       <c r="D2" t="n">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="E2" t="n">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="F2" t="n">
-        <v>87.3636363636364</v>
+        <v>90.9344262295082</v>
       </c>
     </row>
     <row r="3">
@@ -788,13 +806,13 @@
         <v>-2.809</v>
       </c>
       <c r="D3" t="n">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E3" t="n">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F3" t="n">
-        <v>50.2608695652174</v>
+        <v>54.9381443298969</v>
       </c>
     </row>
     <row r="4">
@@ -808,13 +826,13 @@
         <v>3.798</v>
       </c>
       <c r="D4" t="n">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E4" t="n">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F4" t="n">
-        <v>47.6701030927835</v>
+        <v>49.9108910891089</v>
       </c>
     </row>
     <row r="5">
@@ -828,13 +846,13 @@
         <v>-2.753</v>
       </c>
       <c r="D5" t="n">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="E5" t="n">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F5" t="n">
-        <v>45.3780487804878</v>
+        <v>49.8777777777778</v>
       </c>
     </row>
     <row r="6">
@@ -845,16 +863,16 @@
         <v>7</v>
       </c>
       <c r="C6" t="n">
-        <v>-3.056</v>
+        <v>3.237</v>
       </c>
       <c r="D6" t="n">
         <v>88</v>
       </c>
       <c r="E6" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F6" t="n">
-        <v>39.5568181818182</v>
+        <v>42.2840909090909</v>
       </c>
     </row>
     <row r="7">
@@ -865,16 +883,16 @@
         <v>7</v>
       </c>
       <c r="C7" t="n">
-        <v>2.815</v>
+        <v>-3.056</v>
       </c>
       <c r="D7" t="n">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="E7" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F7" t="n">
-        <v>37.0934579439252</v>
+        <v>42.2417582417582</v>
       </c>
     </row>
     <row r="8">
@@ -885,16 +903,16 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>3.237</v>
+        <v>2.815</v>
       </c>
       <c r="D8" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="E8" t="n">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="F8" t="n">
-        <v>36.45</v>
+        <v>37.2363636363636</v>
       </c>
     </row>
     <row r="9">
@@ -908,13 +926,13 @@
         <v>-2.896</v>
       </c>
       <c r="D9" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E9" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F9" t="n">
-        <v>30.4137931034483</v>
+        <v>31.3389830508475</v>
       </c>
     </row>
     <row r="10">
@@ -928,13 +946,13 @@
         <v>2.823</v>
       </c>
       <c r="D10" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E10" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F10" t="n">
-        <v>30.0833333333333</v>
+        <v>31.0408163265306</v>
       </c>
     </row>
     <row r="11">
@@ -948,13 +966,13 @@
         <v>2.643</v>
       </c>
       <c r="D11" t="n">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E11" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F11" t="n">
-        <v>28.0701754385965</v>
+        <v>28.9180327868852</v>
       </c>
     </row>
     <row r="12">
@@ -968,13 +986,13 @@
         <v>-2.825</v>
       </c>
       <c r="D12" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E12" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F12" t="n">
-        <v>23.8139534883721</v>
+        <v>26.6304347826087</v>
       </c>
     </row>
     <row r="13">
@@ -988,13 +1006,13 @@
         <v>3.085</v>
       </c>
       <c r="D13" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E13" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F13" t="n">
-        <v>23.3611111111111</v>
+        <v>24.3243243243243</v>
       </c>
     </row>
     <row r="14">
@@ -1008,13 +1026,13 @@
         <v>2.862</v>
       </c>
       <c r="D14" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E14" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F14" t="n">
-        <v>19.1136363636364</v>
+        <v>19.5652173913043</v>
       </c>
     </row>
     <row r="15">
@@ -1028,13 +1046,13 @@
         <v>2.952</v>
       </c>
       <c r="D15" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E15" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F15" t="n">
-        <v>17.7894736842105</v>
+        <v>18.225</v>
       </c>
     </row>
     <row r="16">
@@ -1048,13 +1066,13 @@
         <v>-2.842</v>
       </c>
       <c r="D16" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E16" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F16" t="n">
-        <v>15.625</v>
+        <v>16.4878048780488</v>
       </c>
     </row>
     <row r="17">
@@ -1065,16 +1083,16 @@
         <v>7</v>
       </c>
       <c r="C17" t="n">
-        <v>-3.155</v>
+        <v>-2.89</v>
       </c>
       <c r="D17" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="E17" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F17" t="n">
-        <v>12.8</v>
+        <v>16.4571428571429</v>
       </c>
     </row>
     <row r="18">
@@ -1085,16 +1103,16 @@
         <v>7</v>
       </c>
       <c r="C18" t="n">
-        <v>-2.89</v>
+        <v>2.967</v>
       </c>
       <c r="D18" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E18" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F18" t="n">
-        <v>12.0333333333333</v>
+        <v>13.225</v>
       </c>
     </row>
     <row r="19">
@@ -1105,16 +1123,16 @@
         <v>7</v>
       </c>
       <c r="C19" t="n">
-        <v>2.967</v>
+        <v>-3.155</v>
       </c>
       <c r="D19" t="n">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E19" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F19" t="n">
-        <v>11.6052631578947</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="20">
@@ -1128,13 +1146,13 @@
         <v>3.155</v>
       </c>
       <c r="D20" t="n">
+        <v>14</v>
+      </c>
+      <c r="E20" t="n">
         <v>13</v>
       </c>
-      <c r="E20" t="n">
-        <v>12</v>
-      </c>
       <c r="F20" t="n">
-        <v>11.0769230769231</v>
+        <v>12.0714285714286</v>
       </c>
     </row>
     <row r="21">
@@ -1148,13 +1166,13 @@
         <v>-3.017</v>
       </c>
       <c r="D21" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E21" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F21" t="n">
-        <v>10.7142857142857</v>
+        <v>11.6363636363636</v>
       </c>
     </row>
     <row r="22">
@@ -1168,13 +1186,13 @@
         <v>3.081</v>
       </c>
       <c r="D22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="n">
-        <v>8.33333333333333</v>
+        <v>9.30769230769231</v>
       </c>
     </row>
     <row r="23">
@@ -1185,16 +1203,16 @@
         <v>7</v>
       </c>
       <c r="C23" t="n">
-        <v>-2.607</v>
+        <v>2.656</v>
       </c>
       <c r="D23" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E23" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F23" t="n">
-        <v>7.84</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24">
@@ -1205,16 +1223,16 @@
         <v>7</v>
       </c>
       <c r="C24" t="n">
-        <v>2.656</v>
+        <v>-2.607</v>
       </c>
       <c r="D24" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E24" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F24" t="n">
-        <v>7.11764705882353</v>
+        <v>7.84</v>
       </c>
     </row>
     <row r="25">
@@ -1225,16 +1243,16 @@
         <v>7</v>
       </c>
       <c r="C25" t="n">
-        <v>2.595</v>
+        <v>3.735</v>
       </c>
       <c r="D25" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F25" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26">
@@ -1245,16 +1263,16 @@
         <v>7</v>
       </c>
       <c r="C26" t="n">
-        <v>3.547</v>
+        <v>-3.648</v>
       </c>
       <c r="D26" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E26" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F26" t="n">
-        <v>6.4</v>
+        <v>6.72222222222222</v>
       </c>
     </row>
     <row r="27">
@@ -1265,16 +1283,16 @@
         <v>7</v>
       </c>
       <c r="C27" t="n">
-        <v>2.882</v>
+        <v>-2.811</v>
       </c>
       <c r="D27" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E27" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F27" t="n">
-        <v>6.125</v>
+        <v>6.66666666666667</v>
       </c>
     </row>
     <row r="28">
@@ -1285,16 +1303,16 @@
         <v>7</v>
       </c>
       <c r="C28" t="n">
-        <v>-3.648</v>
+        <v>-2.88</v>
       </c>
       <c r="D28" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E28" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F28" t="n">
-        <v>5.88235294117647</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="29">
@@ -1305,16 +1323,16 @@
         <v>7</v>
       </c>
       <c r="C29" t="n">
-        <v>2.99</v>
+        <v>2.595</v>
       </c>
       <c r="D29" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E29" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F29" t="n">
-        <v>5.78571428571429</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="30">
@@ -1325,16 +1343,16 @@
         <v>7</v>
       </c>
       <c r="C30" t="n">
-        <v>3.735</v>
+        <v>3.547</v>
       </c>
       <c r="D30" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E30" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F30" t="n">
-        <v>5</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="31">
@@ -1345,16 +1363,16 @@
         <v>7</v>
       </c>
       <c r="C31" t="n">
-        <v>-2.811</v>
+        <v>2.882</v>
       </c>
       <c r="D31" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F31" t="n">
-        <v>4.92307692307692</v>
+        <v>6.125</v>
       </c>
     </row>
     <row r="32">
@@ -1365,16 +1383,16 @@
         <v>7</v>
       </c>
       <c r="C32" t="n">
-        <v>-2.694</v>
+        <v>2.99</v>
       </c>
       <c r="D32" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E32" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F32" t="n">
-        <v>4.9</v>
+        <v>5.78571428571429</v>
       </c>
     </row>
     <row r="33">
@@ -1385,16 +1403,16 @@
         <v>7</v>
       </c>
       <c r="C33" t="n">
-        <v>2.987</v>
+        <v>3.829</v>
       </c>
       <c r="D33" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E33" t="n">
         <v>6</v>
       </c>
       <c r="F33" t="n">
-        <v>4.5</v>
+        <v>5.14285714285714</v>
       </c>
     </row>
     <row r="34">
@@ -1405,16 +1423,16 @@
         <v>7</v>
       </c>
       <c r="C34" t="n">
-        <v>-2.88</v>
+        <v>-2.911</v>
       </c>
       <c r="D34" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E34" t="n">
         <v>6</v>
       </c>
       <c r="F34" t="n">
-        <v>4.5</v>
+        <v>5.14285714285714</v>
       </c>
     </row>
     <row r="35">
@@ -1425,16 +1443,16 @@
         <v>7</v>
       </c>
       <c r="C35" t="n">
-        <v>-2.585</v>
+        <v>-2.694</v>
       </c>
       <c r="D35" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E35" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F35" t="n">
-        <v>4.16666666666667</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="36">
@@ -1445,16 +1463,16 @@
         <v>7</v>
       </c>
       <c r="C36" t="n">
-        <v>-2.723</v>
+        <v>2.987</v>
       </c>
       <c r="D36" t="n">
+        <v>8</v>
+      </c>
+      <c r="E36" t="n">
         <v>6</v>
       </c>
-      <c r="E36" t="n">
-        <v>5</v>
-      </c>
       <c r="F36" t="n">
-        <v>4.16666666666667</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="37">
@@ -1465,7 +1483,7 @@
         <v>7</v>
       </c>
       <c r="C37" t="n">
-        <v>3.829</v>
+        <v>-2.585</v>
       </c>
       <c r="D37" t="n">
         <v>6</v>
@@ -1485,7 +1503,7 @@
         <v>7</v>
       </c>
       <c r="C38" t="n">
-        <v>-2.911</v>
+        <v>-2.723</v>
       </c>
       <c r="D38" t="n">
         <v>6</v>
@@ -1505,16 +1523,16 @@
         <v>7</v>
       </c>
       <c r="C39" t="n">
-        <v>-3.015</v>
+        <v>2.665</v>
       </c>
       <c r="D39" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E39" t="n">
         <v>4</v>
       </c>
       <c r="F39" t="n">
-        <v>2.66666666666667</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="40">
@@ -1525,16 +1543,16 @@
         <v>7</v>
       </c>
       <c r="C40" t="n">
-        <v>2.634</v>
+        <v>3.692</v>
       </c>
       <c r="D40" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E40" t="n">
         <v>6</v>
       </c>
       <c r="F40" t="n">
-        <v>2.25</v>
+        <v>2.76923076923077</v>
       </c>
     </row>
     <row r="41">
@@ -1545,16 +1563,16 @@
         <v>7</v>
       </c>
       <c r="C41" t="n">
-        <v>2.665</v>
+        <v>-3.159</v>
       </c>
       <c r="D41" t="n">
+        <v>6</v>
+      </c>
+      <c r="E41" t="n">
         <v>4</v>
       </c>
-      <c r="E41" t="n">
-        <v>3</v>
-      </c>
       <c r="F41" t="n">
-        <v>2.25</v>
+        <v>2.66666666666667</v>
       </c>
     </row>
     <row r="42">
@@ -1565,16 +1583,16 @@
         <v>7</v>
       </c>
       <c r="C42" t="n">
-        <v>-3.27</v>
+        <v>-3.015</v>
       </c>
       <c r="D42" t="n">
+        <v>6</v>
+      </c>
+      <c r="E42" t="n">
         <v>4</v>
       </c>
-      <c r="E42" t="n">
-        <v>3</v>
-      </c>
       <c r="F42" t="n">
-        <v>2.25</v>
+        <v>2.66666666666667</v>
       </c>
     </row>
     <row r="43">
@@ -1585,16 +1603,16 @@
         <v>7</v>
       </c>
       <c r="C43" t="n">
-        <v>3.692</v>
+        <v>-3.27</v>
       </c>
       <c r="D43" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F43" t="n">
-        <v>2.08333333333333</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="44">
@@ -1605,16 +1623,16 @@
         <v>7</v>
       </c>
       <c r="C44" t="n">
-        <v>2.601</v>
+        <v>2.634</v>
       </c>
       <c r="D44" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E44" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F44" t="n">
-        <v>2</v>
+        <v>2.11764705882353</v>
       </c>
     </row>
     <row r="45">
@@ -1625,7 +1643,7 @@
         <v>7</v>
       </c>
       <c r="C45" t="n">
-        <v>-3.022</v>
+        <v>2.601</v>
       </c>
       <c r="D45" t="n">
         <v>2</v>
@@ -1645,16 +1663,16 @@
         <v>7</v>
       </c>
       <c r="C46" t="n">
-        <v>-3.159</v>
+        <v>-3.022</v>
       </c>
       <c r="D46" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F46" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47">
@@ -1685,13 +1703,13 @@
         <v>7</v>
       </c>
       <c r="C48" t="n">
-        <v>-3.023</v>
+        <v>3.197</v>
       </c>
       <c r="D48" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F48" t="n">
         <v>1</v>
@@ -1705,16 +1723,16 @@
         <v>7</v>
       </c>
       <c r="C49" t="n">
-        <v>2.609</v>
+        <v>-3.023</v>
       </c>
       <c r="D49" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -1725,7 +1743,7 @@
         <v>7</v>
       </c>
       <c r="C50" t="n">
-        <v>-3.345</v>
+        <v>2.609</v>
       </c>
       <c r="D50" t="n">
         <v>5</v>
@@ -1745,16 +1763,16 @@
         <v>7</v>
       </c>
       <c r="C51" t="n">
-        <v>2.816</v>
+        <v>-3.345</v>
       </c>
       <c r="D51" t="n">
+        <v>5</v>
+      </c>
+      <c r="E51" t="n">
         <v>2</v>
       </c>
-      <c r="E51" t="n">
-        <v>1</v>
-      </c>
       <c r="F51" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="52">
@@ -1765,7 +1783,7 @@
         <v>7</v>
       </c>
       <c r="C52" t="n">
-        <v>3.197</v>
+        <v>2.816</v>
       </c>
       <c r="D52" t="n">
         <v>2</v>
@@ -2048,7 +2066,7 @@
         <v>-3.334</v>
       </c>
       <c r="D66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E66" t="n">
         <v>0</v>
@@ -2656,6 +2674,66 @@
       <c r="D123"/>
       <c r="E123"/>
       <c r="F123"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>129</v>
+      </c>
+      <c r="B124"/>
+      <c r="C124"/>
+      <c r="D124"/>
+      <c r="E124"/>
+      <c r="F124"/>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>130</v>
+      </c>
+      <c r="B125"/>
+      <c r="C125"/>
+      <c r="D125"/>
+      <c r="E125"/>
+      <c r="F125"/>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>131</v>
+      </c>
+      <c r="B126"/>
+      <c r="C126"/>
+      <c r="D126"/>
+      <c r="E126"/>
+      <c r="F126"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>132</v>
+      </c>
+      <c r="B127"/>
+      <c r="C127"/>
+      <c r="D127"/>
+      <c r="E127"/>
+      <c r="F127"/>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>133</v>
+      </c>
+      <c r="B128"/>
+      <c r="C128"/>
+      <c r="D128"/>
+      <c r="E128"/>
+      <c r="F128"/>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>134</v>
+      </c>
+      <c r="B129"/>
+      <c r="C129"/>
+      <c r="D129"/>
+      <c r="E129"/>
+      <c r="F129"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2673,15 +2751,15 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B1" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -2689,7 +2767,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -2697,7 +2775,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -2705,7 +2783,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -2713,7 +2791,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -2721,15 +2799,15 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>121</v>
+        <v>86</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -2737,18 +2815,18 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>126</v>
       </c>
       <c r="B9" t="s">
-        <v>86</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11">
@@ -2756,207 +2834,207 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>94</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>122</v>
       </c>
       <c r="B15" t="s">
-        <v>121</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>118</v>
+        <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>106</v>
+        <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B20" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>109</v>
+      </c>
+      <c r="B21" t="s">
         <v>15</v>
-      </c>
-      <c r="B21" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>91</v>
+        <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>93</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="B24" t="s">
-        <v>113</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="B25" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B26" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="B27" t="s">
-        <v>93</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B28" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B29" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>102</v>
       </c>
       <c r="B30" t="s">
-        <v>101</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>123</v>
+        <v>22</v>
       </c>
       <c r="B31" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="B32" t="s">
-        <v>93</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="B33" t="s">
-        <v>124</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="B34" t="s">
-        <v>75</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>75</v>
+        <v>128</v>
       </c>
       <c r="B36" t="s">
-        <v>125</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37">
@@ -2964,7 +3042,7 @@
         <v>75</v>
       </c>
       <c r="B37" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
     </row>
     <row r="38">
@@ -2972,63 +3050,63 @@
         <v>75</v>
       </c>
       <c r="B38" t="s">
-        <v>92</v>
+        <v>129</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B39" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="B40" t="s">
-        <v>120</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>126</v>
+        <v>75</v>
       </c>
       <c r="B41" t="s">
-        <v>77</v>
+        <v>130</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B42" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="B43" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B44" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B45" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
     </row>
     <row r="46">
@@ -3036,7 +3114,7 @@
         <v>77</v>
       </c>
       <c r="B46" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47">
@@ -3044,12 +3122,12 @@
         <v>77</v>
       </c>
       <c r="B47" t="s">
-        <v>79</v>
+        <v>124</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="B48" t="s">
         <v>77</v>
@@ -3060,7 +3138,7 @@
         <v>77</v>
       </c>
       <c r="B49" t="s">
-        <v>87</v>
+        <v>133</v>
       </c>
     </row>
     <row r="50">
@@ -3068,20 +3146,20 @@
         <v>90</v>
       </c>
       <c r="B50" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>112</v>
+        <v>77</v>
       </c>
       <c r="B51" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="B52" t="s">
         <v>78</v>
@@ -3089,10 +3167,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B53" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="54">
@@ -3100,28 +3178,28 @@
         <v>77</v>
       </c>
       <c r="B54" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="B55" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="B56" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="B57" t="s">
         <v>78</v>
@@ -3129,7 +3207,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B58" t="s">
         <v>78</v>
@@ -3137,7 +3215,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="B59" t="s">
         <v>78</v>
@@ -3145,7 +3223,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B60" t="s">
         <v>78</v>
@@ -3153,63 +3231,63 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="B61" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B62" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B63" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="B64" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B65" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="B66" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B67" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>77</v>
+        <v>121</v>
       </c>
       <c r="B68" t="s">
         <v>79</v>
@@ -3217,7 +3295,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B69" t="s">
         <v>79</v>
@@ -3225,7 +3303,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B70" t="s">
         <v>79</v>
@@ -3233,34 +3311,34 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B71" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>126</v>
+        <v>79</v>
       </c>
       <c r="B72" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>90</v>
+        <v>132</v>
       </c>
       <c r="B73" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B74" t="s">
-        <v>121</v>
+        <v>79</v>
       </c>
     </row>
     <row r="75">
@@ -3268,28 +3346,28 @@
         <v>80</v>
       </c>
       <c r="B75" t="s">
-        <v>117</v>
+        <v>79</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B76" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="B77" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="B78" t="s">
         <v>79</v>
@@ -3297,10 +3375,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="B79" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="80">
@@ -3308,295 +3386,295 @@
         <v>80</v>
       </c>
       <c r="B80" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>81</v>
+        <v>132</v>
       </c>
       <c r="B81" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="B82" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="B83" t="s">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B84" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="B85" t="s">
-        <v>81</v>
+        <v>121</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B86" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="B87" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>123</v>
+        <v>80</v>
       </c>
       <c r="B88" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B89" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="B90" t="s">
-        <v>81</v>
+        <v>131</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B91" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="B92" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="B93" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="B94" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="B95" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B96" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="B97" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="B98" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="B99" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>84</v>
+        <v>124</v>
       </c>
       <c r="B100" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="B101" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B102" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>84</v>
+        <v>132</v>
       </c>
       <c r="B103" t="s">
-        <v>114</v>
+        <v>82</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="B104" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="B105" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B106" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B107" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="B108" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B109" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="B110" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B111" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B112" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B113" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B114" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B115" t="s">
-        <v>128</v>
+        <v>84</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>77</v>
+        <v>118</v>
       </c>
       <c r="B116" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="117">
@@ -3604,76 +3682,76 @@
         <v>90</v>
       </c>
       <c r="B117" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="B118" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="B119" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B120" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="B121" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B122" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
+        <v>85</v>
+      </c>
+      <c r="B123" t="s">
         <v>91</v>
-      </c>
-      <c r="B123" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="B124" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>125</v>
+        <v>85</v>
       </c>
       <c r="B125" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>127</v>
+        <v>87</v>
       </c>
       <c r="B126" t="s">
         <v>87</v>
@@ -3684,12 +3762,12 @@
         <v>87</v>
       </c>
       <c r="B127" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="B128" t="s">
         <v>87</v>
@@ -3697,71 +3775,71 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B129" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="B130" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>88</v>
+        <v>132</v>
       </c>
       <c r="B131" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="B132" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="B133" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="B134" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B135" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="B136" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="B137" t="s">
         <v>87</v>
@@ -3769,71 +3847,71 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>89</v>
+        <v>130</v>
       </c>
       <c r="B138" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B139" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B140" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B141" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="B142" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B143" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="B144" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B145" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B146" t="s">
         <v>82</v>
@@ -3841,15 +3919,15 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="B147" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B148" t="s">
         <v>83</v>
@@ -3857,327 +3935,327 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B149" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B150" t="s">
-        <v>75</v>
+        <v>123</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B151" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B152" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B153" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>91</v>
+        <v>133</v>
       </c>
       <c r="B154" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>85</v>
+        <v>132</v>
       </c>
       <c r="B155" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="B156" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B157" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B158" t="s">
-        <v>121</v>
+        <v>77</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B159" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B160" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B161" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B162" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B163" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="B164" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="B165" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B166" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="B167" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B168" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B169" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="B170" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="B171" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B172" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B173" t="s">
-        <v>96</v>
+        <v>131</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B174" t="s">
-        <v>94</v>
+        <v>126</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B175" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B176" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="B177" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="B178" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B179" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="B180" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="B181" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B182" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="B183" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B184" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="B185" t="s">
-        <v>97</v>
+        <v>134</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="B186" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B187" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="B188" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="B189" t="s">
         <v>97</v>
@@ -4185,199 +4263,199 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="B190" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
+        <v>94</v>
+      </c>
+      <c r="B191" t="s">
         <v>98</v>
-      </c>
-      <c r="B191" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B192" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B193" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="B194" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B195" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>91</v>
+        <v>118</v>
       </c>
       <c r="B196" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B197" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="B198" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="B199" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B200" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="B201" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B202" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="B203" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="B204" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B205" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B206" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B207" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B208" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B209" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
       <c r="B210" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B211" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B212" t="s">
-        <v>101</v>
+        <v>131</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B213" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B214" t="s">
         <v>101</v>
@@ -4385,34 +4463,34 @@
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B215" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B216" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B217" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B218" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="219">
@@ -4420,28 +4498,28 @@
         <v>102</v>
       </c>
       <c r="B219" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="B220" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B221" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B222" t="s">
         <v>87</v>
@@ -4449,95 +4527,95 @@
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="B223" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B224" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="B225" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="B226" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="B227" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B228" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
+        <v>105</v>
+      </c>
+      <c r="B229" t="s">
         <v>100</v>
-      </c>
-      <c r="B229" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B230" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B231" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="B232" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B233" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B234" t="s">
         <v>101</v>
@@ -4545,26 +4623,26 @@
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B235" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B236" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="B237" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="238">
@@ -4572,132 +4650,132 @@
         <v>102</v>
       </c>
       <c r="B238" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="B239" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="B240" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="B241" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B242" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B243" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B244" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="B245" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B246" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="B247" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="B248" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B249" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="B250" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B251" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B252" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B253" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B254" t="s">
         <v>104</v>
@@ -4708,575 +4786,1167 @@
         <v>110</v>
       </c>
       <c r="B255" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B256" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B257" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B258" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B259" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="B260" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B261" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B262" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B263" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B264" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B265" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B266" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="B267" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="B268" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B269" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="B270" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="B271" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B272" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="B273" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="B274" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="B275" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B276" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B277" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B278" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="B279" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>115</v>
+        <v>84</v>
       </c>
       <c r="B280" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="B281" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="B282" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B283" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B284" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="s">
+        <v>109</v>
+      </c>
+      <c r="B285" t="s">
         <v>116</v>
-      </c>
-      <c r="B285" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B286" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="s">
+        <v>111</v>
+      </c>
+      <c r="B287" t="s">
         <v>106</v>
-      </c>
-      <c r="B287" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="B288" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B289" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B290" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B291" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B292" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="B293" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="B294" t="s">
-        <v>121</v>
+        <v>78</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B295" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="s">
+        <v>113</v>
+      </c>
+      <c r="B296" t="s">
         <v>121</v>
-      </c>
-      <c r="B296" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B297" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B298" t="s">
-        <v>122</v>
+        <v>78</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B299" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B300" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="B301" t="s">
-        <v>123</v>
+        <v>88</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="B302" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B303" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="B304" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="B305" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>75</v>
+        <v>118</v>
       </c>
       <c r="B306" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="B307" t="s">
-        <v>81</v>
+        <v>127</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="B308" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="B309" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="B310" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="B311" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="B312" t="s">
-        <v>79</v>
+        <v>111</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="B313" t="s">
-        <v>77</v>
+        <v>121</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="B314" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="B315" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>77</v>
+        <v>119</v>
       </c>
       <c r="B316" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="B317" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B318" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>127</v>
+        <v>89</v>
       </c>
       <c r="B319" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="B320" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="B321" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>128</v>
+        <v>87</v>
       </c>
       <c r="B322" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="B323" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="B324" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="B325" t="s">
-        <v>128</v>
+        <v>100</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="s">
+        <v>118</v>
+      </c>
+      <c r="B326" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="s">
+        <v>118</v>
+      </c>
+      <c r="B327" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="s">
+        <v>118</v>
+      </c>
+      <c r="B328" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="s">
+        <v>118</v>
+      </c>
+      <c r="B329" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="s">
+        <v>119</v>
+      </c>
+      <c r="B330" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="s">
+        <v>119</v>
+      </c>
+      <c r="B331" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="s">
+        <v>119</v>
+      </c>
+      <c r="B332" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="s">
+        <v>119</v>
+      </c>
+      <c r="B333" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="s">
+        <v>126</v>
+      </c>
+      <c r="B334" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="s">
+        <v>113</v>
+      </c>
+      <c r="B335" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="s">
+        <v>120</v>
+      </c>
+      <c r="B336" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="s">
+        <v>120</v>
+      </c>
+      <c r="B337" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="s">
+        <v>109</v>
+      </c>
+      <c r="B338" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="s">
+        <v>88</v>
+      </c>
+      <c r="B339" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="s">
+        <v>113</v>
+      </c>
+      <c r="B340" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="s">
+        <v>116</v>
+      </c>
+      <c r="B341" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="s">
+        <v>80</v>
+      </c>
+      <c r="B342" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="s">
+        <v>125</v>
+      </c>
+      <c r="B343" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="s">
+        <v>125</v>
+      </c>
+      <c r="B344" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="s">
+        <v>125</v>
+      </c>
+      <c r="B345" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="s">
+        <v>75</v>
+      </c>
+      <c r="B346" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="s">
+        <v>125</v>
+      </c>
+      <c r="B347" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="s">
+        <v>125</v>
+      </c>
+      <c r="B348" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="s">
+        <v>88</v>
+      </c>
+      <c r="B349" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="s">
+        <v>125</v>
+      </c>
+      <c r="B350" t="s">
         <v>87</v>
       </c>
-      <c r="B326" t="s">
+    </row>
+    <row r="351">
+      <c r="A351" t="s">
+        <v>125</v>
+      </c>
+      <c r="B351" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="s">
+        <v>130</v>
+      </c>
+      <c r="B352" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="s">
+        <v>126</v>
+      </c>
+      <c r="B353" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="s">
+        <v>126</v>
+      </c>
+      <c r="B354" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="s">
+        <v>80</v>
+      </c>
+      <c r="B355" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="s">
+        <v>91</v>
+      </c>
+      <c r="B356" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="s">
+        <v>125</v>
+      </c>
+      <c r="B357" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="s">
+        <v>126</v>
+      </c>
+      <c r="B358" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="s">
+        <v>126</v>
+      </c>
+      <c r="B359" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="s">
+        <v>126</v>
+      </c>
+      <c r="B360" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="s">
+        <v>126</v>
+      </c>
+      <c r="B361" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="s">
+        <v>127</v>
+      </c>
+      <c r="B362" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="s">
+        <v>121</v>
+      </c>
+      <c r="B363" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="s">
+        <v>114</v>
+      </c>
+      <c r="B364" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="s">
         <v>128</v>
+      </c>
+      <c r="B365" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="s">
+        <v>128</v>
+      </c>
+      <c r="B366" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="s">
+        <v>119</v>
+      </c>
+      <c r="B367" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="s">
+        <v>130</v>
+      </c>
+      <c r="B368" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="s">
+        <v>130</v>
+      </c>
+      <c r="B369" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="s">
+        <v>130</v>
+      </c>
+      <c r="B370" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="s">
+        <v>75</v>
+      </c>
+      <c r="B371" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="s">
+        <v>130</v>
+      </c>
+      <c r="B372" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="s">
+        <v>130</v>
+      </c>
+      <c r="B373" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="s">
+        <v>130</v>
+      </c>
+      <c r="B374" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="s">
+        <v>130</v>
+      </c>
+      <c r="B375" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="s">
+        <v>129</v>
+      </c>
+      <c r="B376" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="s">
+        <v>131</v>
+      </c>
+      <c r="B377" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="s">
+        <v>75</v>
+      </c>
+      <c r="B378" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="s">
+        <v>80</v>
+      </c>
+      <c r="B379" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="s">
+        <v>98</v>
+      </c>
+      <c r="B380" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="s">
+        <v>122</v>
+      </c>
+      <c r="B381" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="s">
+        <v>131</v>
+      </c>
+      <c r="B382" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="s">
+        <v>91</v>
+      </c>
+      <c r="B383" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="s">
+        <v>132</v>
+      </c>
+      <c r="B384" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="s">
+        <v>132</v>
+      </c>
+      <c r="B385" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="s">
+        <v>132</v>
+      </c>
+      <c r="B386" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="s">
+        <v>132</v>
+      </c>
+      <c r="B387" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="s">
+        <v>132</v>
+      </c>
+      <c r="B388" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="s">
+        <v>132</v>
+      </c>
+      <c r="B389" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="s">
+        <v>77</v>
+      </c>
+      <c r="B390" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="s">
+        <v>92</v>
+      </c>
+      <c r="B391" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="s">
+        <v>126</v>
+      </c>
+      <c r="B392" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="s">
+        <v>133</v>
+      </c>
+      <c r="B393" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="s">
+        <v>122</v>
+      </c>
+      <c r="B394" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="s">
+        <v>133</v>
+      </c>
+      <c r="B395" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="s">
+        <v>134</v>
+      </c>
+      <c r="B396" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="s">
+        <v>92</v>
+      </c>
+      <c r="B397" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="s">
+        <v>93</v>
+      </c>
+      <c r="B398" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="s">
+        <v>86</v>
+      </c>
+      <c r="B399" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="s">
+        <v>87</v>
+      </c>
+      <c r="B400" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
